--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Atrial Fibrillation or Flutter Status Code System</t>
+    <t>Atrial Fibrillation or Flutter Status Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-afib-flutter-status-cs.xlsx
+++ b/CodeSystem-afib-flutter-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
